--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82B5302A-7889-E749-8AF7-DE2B0974C099}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9B39CFA-F1F1-854E-BAA9-053759AD2C5E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gendata" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+      <selection activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,83 +774,83 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(D4:D6)</f>
+        <f t="shared" ref="D7:W7" si="0">SUM(D4:D6)</f>
         <v>132.94</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(E4:E6)</f>
+        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
       <c r="F7" s="3">
-        <f>SUM(F4:F6)</f>
+        <f t="shared" si="0"/>
         <v>5.84</v>
       </c>
       <c r="G7" s="3">
-        <f>SUM(G4:G6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="H7" s="3">
-        <f>SUM(H4:H6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="I7" s="3">
-        <f>SUM(I4:I6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="J7" s="3">
-        <f>SUM(J4:J6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="K7" s="3">
-        <f>SUM(K4:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="L7" s="3">
-        <f>SUM(L4:L6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="M7" s="3">
-        <f>SUM(M4:M6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="N7" s="3">
-        <f>SUM(N4:N6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="O7" s="3">
-        <f>SUM(O4:O6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="P7" s="3">
-        <f>SUM(P4:P6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="Q7" s="3">
-        <f>SUM(Q4:Q6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="R7" s="3">
-        <f>SUM(R4:R6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="S7" s="3">
-        <f>SUM(S4:S6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="T7" s="3">
-        <f>SUM(T4:T6)</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="U7" s="3">
-        <f>SUM(U4:U6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>SUM(V4:V6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W7" s="3">
-        <f>SUM(W4:W6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1056,30 +1056,55 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2021</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>2021</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1088,34 +1113,6 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806390A4-A823-AB47-9E6F-382962B16039}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63014E74-20CE-4CEF-938C-20F9095B5516}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>vm_pu</t>
+  </si>
+  <si>
+    <t>va_degree</t>
+  </si>
+  <si>
+    <t>V_bus_kV</t>
+  </si>
+  <si>
+    <t>Std_type</t>
+  </si>
+  <si>
+    <t>H_v_bus</t>
+  </si>
+  <si>
+    <t>L_v_bus</t>
+  </si>
+  <si>
+    <t>0.25 MVA 225/11 kV</t>
+  </si>
+  <si>
+    <t>0.25 MVA 225/33 kV</t>
+  </si>
+  <si>
+    <t>0.25 MVA 33/11 kV</t>
+  </si>
+  <si>
+    <t>0.25 MVA 225/30 kV</t>
+  </si>
+  <si>
+    <t>0.25 MVA 30/11 kV</t>
+  </si>
+  <si>
     <t>From bus</t>
   </si>
   <si>
@@ -58,53 +94,17 @@
     <t>Max_current_kA</t>
   </si>
   <si>
-    <t>Std_type</t>
-  </si>
-  <si>
-    <t>0.25 MVA 225/11 kV</t>
-  </si>
-  <si>
-    <t>0.25 MVA 225/33 kV</t>
-  </si>
-  <si>
-    <t>0.25 MVA 33/11 kV</t>
-  </si>
-  <si>
-    <t>0.25 MVA 225/30 kV</t>
-  </si>
-  <si>
-    <t>0.25 MVA 30/11 kV</t>
-  </si>
-  <si>
-    <t>H_v_bus</t>
-  </si>
-  <si>
-    <t>L_v_bus</t>
-  </si>
-  <si>
-    <t>V_bus_kV</t>
-  </si>
-  <si>
     <t>bus</t>
   </si>
   <si>
     <t>Load(W)</t>
-  </si>
-  <si>
-    <t>BUS</t>
-  </si>
-  <si>
-    <t>vm_pu</t>
-  </si>
-  <si>
-    <t>va_degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,11 +139,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,24 +468,24 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -489,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -503,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -530,15 +540,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,7 +556,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -554,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -562,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -570,7 +580,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -578,7 +588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -586,7 +596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -594,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -602,7 +612,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -610,7 +620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -618,7 +628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -635,47 +645,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E954898C-FDB2-714E-A8B5-FE740843B9D0}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -683,12 +693,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -697,12 +707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -711,12 +721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -732,42 +742,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>0</v>
       </c>
@@ -793,7 +803,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
@@ -819,7 +829,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2</v>
       </c>
@@ -845,7 +855,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>3</v>
       </c>
@@ -870,8 +880,16 @@
       <c r="H5">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>4</v>
       </c>
@@ -896,8 +914,16 @@
       <c r="H6">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>5</v>
       </c>
@@ -922,8 +948,15 @@
       <c r="H7">
         <v>0.14199999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6</v>
       </c>
@@ -949,7 +982,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>7</v>
       </c>
@@ -975,7 +1008,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1001,7 +1034,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1040,17 +1073,17 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63014E74-20CE-4CEF-938C-20F9095B5516}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD4515B-9FDC-44C1-9CFD-1D0CF2B4AFA9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>va_degree</t>
   </si>
   <si>
-    <t>V_bus_kV</t>
+    <t>vn_kv</t>
   </si>
   <si>
     <t>Std_type</t>
@@ -536,15 +536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73AA11C-256C-FF49-97B8-252A71B56BA6}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1"/>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD4515B-9FDC-44C1-9CFD-1D0CF2B4AFA9}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08C89EE-7AD0-47C8-868A-458690CD5EE1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>bus</t>
   </si>
   <si>
-    <t>Load(W)</t>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73AA11C-256C-FF49-97B8-252A71B56BA6}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1069,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1079,7 +1086,7 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08C89EE-7AD0-47C8-868A-458690CD5EE1}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4B4CC8-2A6B-4A86-82E1-74FC3EA06E9B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1098,12 +1098,18 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4B4CC8-2A6B-4A86-82E1-74FC3EA06E9B}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0ADA88-45EB-40D6-8BB9-369C9F4B1D50}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1101,17 +1101,6 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.03</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0ADA88-45EB-40D6-8BB9-369C9F4B1D50}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70205A1C-15BB-4F32-8600-E379616B50BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -508,7 +508,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -841,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -867,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -901,10 +901,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -935,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -968,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -994,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70205A1C-15BB-4F32-8600-E379616B50BC}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8ADAB0-8972-4F23-8A7F-5CFE46761279}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73AA11C-256C-FF49-97B8-252A71B56BA6}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>225</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -592,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>225</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -624,22 +624,6 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
         <v>11</v>
       </c>
     </row>
@@ -749,10 +733,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -792,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>0.6</v>
@@ -844,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>0.6</v>
@@ -873,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0.6</v>
@@ -901,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -929,143 +913,6 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>0.08</v>
-      </c>
-      <c r="G7">
-        <v>210</v>
-      </c>
-      <c r="H7">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0.6</v>
-      </c>
-      <c r="F8">
-        <v>0.08</v>
-      </c>
-      <c r="G8">
-        <v>210</v>
-      </c>
-      <c r="H8">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>0.08</v>
-      </c>
-      <c r="G9">
-        <v>210</v>
-      </c>
-      <c r="H9">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0.6</v>
-      </c>
-      <c r="F10">
-        <v>0.08</v>
-      </c>
-      <c r="G10">
-        <v>210</v>
-      </c>
-      <c r="H10">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <v>0.6</v>
-      </c>
-      <c r="F11">
-        <v>0.08</v>
-      </c>
-      <c r="G11">
-        <v>210</v>
-      </c>
-      <c r="H11">
-        <v>0.14199999999999999</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1076,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1095,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.03</v>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8ADAB0-8972-4F23-8A7F-5CFE46761279}"/>
+  <xr:revisionPtr revIDLastSave="360" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39DC5F2-E940-434E-B7C6-B28E641F5390}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
     <sheet name="Bus" sheetId="2" r:id="rId2"/>
     <sheet name="Trans" sheetId="3" r:id="rId3"/>
     <sheet name="Lines" sheetId="5" r:id="rId4"/>
-    <sheet name="Load" sheetId="4" r:id="rId5"/>
+    <sheet name="line1" sheetId="6" r:id="rId5"/>
+    <sheet name="Line2" sheetId="7" r:id="rId6"/>
+    <sheet name="Load" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>BUS</t>
   </si>
@@ -92,6 +94,9 @@
   </si>
   <si>
     <t>Max_current_kA</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------</t>
   </si>
   <si>
     <t>bus</t>
@@ -733,10 +738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD11"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -776,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>125</v>
@@ -799,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -828,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>65</v>
@@ -851,10 +856,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -885,10 +890,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>65</v>
@@ -914,27 +919,195 @@
       <c r="T6" s="3"/>
       <c r="U6" s="2"/>
     </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB5174-0660-4582-B45F-C8C96096E9F5}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.08</v>
+      </c>
+      <c r="G2">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552EE4E4-BADA-4CB7-956F-704A928FAAE1}">
+  <dimension ref="B1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
+        <v>0.08</v>
+      </c>
+      <c r="G2">
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.08</v>
+      </c>
+      <c r="G3">
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -942,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0.03</v>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39DC5F2-E940-434E-B7C6-B28E641F5390}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBECE973-CF04-4695-B03F-EA0E8201C48E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
     <sheet name="Bus" sheetId="2" r:id="rId2"/>
     <sheet name="Trans" sheetId="3" r:id="rId3"/>
     <sheet name="Lines" sheetId="5" r:id="rId4"/>
-    <sheet name="line1" sheetId="6" r:id="rId5"/>
-    <sheet name="Line2" sheetId="7" r:id="rId6"/>
-    <sheet name="Load" sheetId="4" r:id="rId7"/>
+    <sheet name="Load" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>BUS</t>
   </si>
@@ -94,9 +92,6 @@
   </si>
   <si>
     <t>Max_current_kA</t>
-  </si>
-  <si>
-    <t>------------------------------------------------------</t>
   </si>
   <si>
     <t>bus</t>
@@ -477,7 +472,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -502,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -516,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -530,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -546,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73AA11C-256C-FF49-97B8-252A71B56BA6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -581,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -589,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -597,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -605,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -613,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -629,6 +624,38 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +765,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -784,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -804,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
       <c r="D3">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -833,22 +860,22 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -856,13 +883,13 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>0.6</v>
@@ -876,52 +903,177 @@
       <c r="H5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.08</v>
+      </c>
+      <c r="G7">
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>65</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>0.6</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>0.08</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>210</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <v>0.14199999999999999</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>19</v>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>0.08</v>
+      </c>
+      <c r="G11">
+        <v>210</v>
+      </c>
+      <c r="H11">
+        <v>0.14199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -930,184 +1082,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB5174-0660-4582-B45F-C8C96096E9F5}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>125</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>0.08</v>
-      </c>
-      <c r="G2">
-        <v>210</v>
-      </c>
-      <c r="H2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552EE4E4-BADA-4CB7-956F-704A928FAAE1}">
-  <dimension ref="B1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
-      <c r="E2">
-        <v>0.6</v>
-      </c>
-      <c r="F2">
-        <v>0.08</v>
-      </c>
-      <c r="G2">
-        <v>210</v>
-      </c>
-      <c r="H2">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>65</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
-      </c>
-      <c r="G3">
-        <v>210</v>
-      </c>
-      <c r="H3">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1115,9 +1104,31 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>0.03</v>
       </c>
     </row>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBECE973-CF04-4695-B03F-EA0E8201C48E}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8E67A6-BCF0-4FBD-BB56-C8F015F353EF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.03</v>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8E67A6-BCF0-4FBD-BB56-C8F015F353EF}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B14800-3A37-47AF-8EF3-192FAC60AECA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1085,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B14800-3A37-47AF-8EF3-192FAC60AECA}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E71820EA-B9A2-4888-B181-1002715567FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen slack" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
       <c r="D3">
         <v>125</v>
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
       </c>
       <c r="D5">
         <v>65</v>
@@ -909,10 +909,10 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>7</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -977,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>9</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>10</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
       </c>
       <c r="D9">
         <v>65</v>
@@ -1029,10 +1029,10 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>11</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>12</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
       </c>
       <c r="D11">
         <v>60</v>
